--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -1,93 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\competitions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FC1B4-AEE6-4879-82CB-B83795E8FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>比賽場序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>級組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隊伍1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隊伍2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成績1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成績2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>大學男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,12 +93,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -113,23 +122,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -144,44 +145,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -208,15 +209,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -243,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,261 +254,274 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>比賽場序</t>
   </si>
@@ -52,16 +52,31 @@
     <t>大學男</t>
   </si>
   <si>
+    <t>大學南</t>
+  </si>
+  <si>
     <t>男一</t>
   </si>
   <si>
+    <t>南二</t>
+  </si>
+  <si>
+    <t>男三</t>
+  </si>
+  <si>
     <t>男二</t>
   </si>
   <si>
-    <t>男三</t>
+    <t>南寺</t>
   </si>
   <si>
     <t>男四</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -453,16 +468,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,10 +488,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -498,13 +513,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,10 +530,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA504FF5-9843-4980-AF5B-A0EF71DE6680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>比賽場序</t>
   </si>
@@ -77,17 +83,56 @@
   </si>
   <si>
     <t>3.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,8 +140,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,15 +194,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +284,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +336,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -494,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -508,7 +606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -522,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -536,7 +634,147 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA504FF5-9843-4980-AF5B-A0EF71DE6680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E614A-01CC-4450-AC8D-DE85ED0B18D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>比賽場序</t>
   </si>
@@ -55,12 +55,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>大學男</t>
-  </si>
-  <si>
-    <t>大學南</t>
-  </si>
-  <si>
     <t>男一</t>
   </si>
   <si>
@@ -122,6 +116,10 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>大學男子組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +531,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -563,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -583,13 +581,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,13 +601,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,13 +621,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -625,151 +635,151 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E614A-01CC-4450-AC8D-DE85ED0B18D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>比賽場序</t>
   </si>
@@ -55,6 +49,36 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>大學男子組</t>
+  </si>
+  <si>
     <t>男一</t>
   </si>
   <si>
@@ -79,58 +103,21 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>大學男子組</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,15 +125,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,23 +172,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -250,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,27 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,24 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,16 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,235 +490,221 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C698B2E-F107-42DC-9959-2071FDDD7C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>比賽場序</t>
   </si>
@@ -79,24 +85,6 @@
     <t>大學男子組</t>
   </si>
   <si>
-    <t>男一</t>
-  </si>
-  <si>
-    <t>南二</t>
-  </si>
-  <si>
-    <t>男三</t>
-  </si>
-  <si>
-    <t>男二</t>
-  </si>
-  <si>
-    <t>南寺</t>
-  </si>
-  <si>
-    <t>男四</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -107,17 +95,25 @@
   </si>
   <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>忠明國小 男一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內湖國小 男二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,8 +121,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,15 +175,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -222,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +265,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +317,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -498,19 +547,19 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -518,19 +567,19 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -538,19 +587,19 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -558,13 +607,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -572,13 +621,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -586,13 +635,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -600,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -614,13 +663,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -628,13 +677,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -642,13 +691,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -656,13 +705,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -670,13 +719,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -684,13 +733,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -698,13 +747,15 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C698B2E-F107-42DC-9959-2071FDDD7C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>比賽場序</t>
   </si>
@@ -40,10 +34,10 @@
     <t>成績2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>序2</t>
+  </si>
+  <si>
+    <t>序1</t>
   </si>
   <si>
     <t>3</t>
@@ -76,15 +70,33 @@
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>大學男子組</t>
   </si>
   <si>
+    <t>大學女子</t>
+  </si>
+  <si>
+    <t>忠明國小 男一</t>
+  </si>
+  <si>
+    <t>忠明國小 男三</t>
+  </si>
+  <si>
+    <t>國小 女一</t>
+  </si>
+  <si>
+    <t>內湖國小 男二</t>
+  </si>
+  <si>
+    <t>內湖國小 男五</t>
+  </si>
+  <si>
+    <t>國小 女二</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -95,25 +107,17 @@
   </si>
   <si>
     <t>5.0</t>
-  </si>
-  <si>
-    <t>忠明國小 男一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>內湖國小 男二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,15 +125,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,23 +172,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,16 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,193 +490,193 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -733,29 +684,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/competitions/test.xlsx
+++ b/competitions/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>比賽場序</t>
   </si>
@@ -34,10 +34,10 @@
     <t>成績2</t>
   </si>
   <si>
-    <t>序2</t>
-  </si>
-  <si>
-    <t>序1</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -70,31 +70,25 @@
     <t>12</t>
   </si>
   <si>
-    <t>15</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>大學男子組</t>
   </si>
   <si>
-    <t>大學女子</t>
-  </si>
-  <si>
     <t>忠明國小 男一</t>
   </si>
   <si>
     <t>忠明國小 男三</t>
   </si>
   <si>
-    <t>國小 女一</t>
-  </si>
-  <si>
     <t>內湖國小 男二</t>
   </si>
   <si>
     <t>內湖國小 男五</t>
-  </si>
-  <si>
-    <t>國小 女二</t>
   </si>
   <si>
     <t>2.0</t>
@@ -464,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,19 +489,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -515,19 +509,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -535,19 +529,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -555,13 +549,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -583,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,13 +591,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -611,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -639,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -653,13 +647,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -667,13 +661,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -684,10 +678,24 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
